--- a/tables/Single_edge_rate39.xlsx
+++ b/tables/Single_edge_rate39.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiting/Documents/GitHub/PowerFailure/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50B343A-CC84-1C46-B4FA-2B6DED872E71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24140" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -169,8 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -222,17 +234,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -279,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +335,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +387,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +580,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -549,16 +611,25 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.1387333333333333</v>
+        <v>0.13873333333333329</v>
       </c>
       <c r="D2">
-        <v>0.2554333333333333</v>
+        <v>0.25543333333333329</v>
       </c>
       <c r="E2">
-        <v>0.2946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.87236666666666662</v>
+      </c>
+      <c r="H2">
+        <v>0.87703333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -566,16 +637,25 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1387333333333333</v>
+        <v>0.13873333333333329</v>
       </c>
       <c r="D3">
-        <v>0.2554333333333333</v>
+        <v>0.25543333333333329</v>
       </c>
       <c r="E3">
-        <v>0.2946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.87236666666666662</v>
+      </c>
+      <c r="H3">
+        <v>0.87703333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -586,13 +666,22 @@
         <v>0.1433666666666667</v>
       </c>
       <c r="D4">
-        <v>0.2573</v>
+        <v>0.25729999999999997</v>
       </c>
       <c r="E4">
-        <v>0.2941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.38816666666666672</v>
+      </c>
+      <c r="G4">
+        <v>0.86586666666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.87156666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -600,33 +689,51 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.1269</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="D5">
         <v>0.2567666666666667</v>
       </c>
       <c r="E5">
-        <v>0.2869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.86573333333333335</v>
+      </c>
+      <c r="H5">
+        <v>0.87006666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>0.1524333333333334</v>
-      </c>
-      <c r="D6">
-        <v>0.2544000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="3">
+        <v>0.15243333333333339</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.25440000000000013</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -640,10 +747,19 @@
         <v>0.2552666666666667</v>
       </c>
       <c r="E7">
-        <v>0.2945333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.29453333333333331</v>
+      </c>
+      <c r="F7">
+        <v>0.40526666666666672</v>
+      </c>
+      <c r="G7">
+        <v>0.86820000000000008</v>
+      </c>
+      <c r="H7">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -651,16 +767,25 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.1525333333333334</v>
+        <v>0.15253333333333341</v>
       </c>
       <c r="D8">
-        <v>0.2602</v>
+        <v>0.26019999999999999</v>
       </c>
       <c r="E8">
         <v>0.3010666666666667</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0.41296666666666659</v>
+      </c>
+      <c r="G8">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.87356666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -668,16 +793,25 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.1488333333333333</v>
+        <v>0.14883333333333329</v>
       </c>
       <c r="D9">
-        <v>0.2543666666666667</v>
+        <v>0.25436666666666669</v>
       </c>
       <c r="E9">
-        <v>0.2945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.40483333333333338</v>
+      </c>
+      <c r="G9">
+        <v>0.86386666666666678</v>
+      </c>
+      <c r="H9">
+        <v>0.86873333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -685,16 +819,25 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.1514333333333333</v>
+        <v>0.15143333333333331</v>
       </c>
       <c r="D10">
         <v>0.255</v>
       </c>
       <c r="E10">
-        <v>0.2958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.87203333333333322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -702,16 +845,25 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.1499</v>
+        <v>0.14990000000000001</v>
       </c>
       <c r="D11">
-        <v>0.2544666666666667</v>
+        <v>0.25446666666666667</v>
       </c>
       <c r="E11">
-        <v>0.2951333333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.29513333333333341</v>
+      </c>
+      <c r="F11">
+        <v>0.41</v>
+      </c>
+      <c r="G11">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.87029999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -719,16 +871,25 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.1514333333333333</v>
+        <v>0.15143333333333331</v>
       </c>
       <c r="D12">
-        <v>0.2536666666666667</v>
+        <v>0.25366666666666671</v>
       </c>
       <c r="E12">
-        <v>0.2951666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.29516666666666669</v>
+      </c>
+      <c r="F12">
+        <v>0.41386666666666672</v>
+      </c>
+      <c r="G12">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.87209999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -736,16 +897,25 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.1511333333333333</v>
+        <v>0.15113333333333329</v>
       </c>
       <c r="D13">
-        <v>0.2543000000000001</v>
+        <v>0.25430000000000008</v>
       </c>
       <c r="E13">
-        <v>0.2957333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.29573333333333329</v>
+      </c>
+      <c r="F13">
+        <v>0.41333333333333339</v>
+      </c>
+      <c r="G13">
+        <v>0.86659999999999981</v>
+      </c>
+      <c r="H13">
+        <v>0.87203333333333322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -753,16 +923,25 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.1397333333333333</v>
+        <v>0.13973333333333329</v>
       </c>
       <c r="D14">
-        <v>0.2503</v>
+        <v>0.25030000000000002</v>
       </c>
       <c r="E14">
-        <v>0.287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.39053333333333329</v>
+      </c>
+      <c r="G14">
+        <v>0.8631333333333332</v>
+      </c>
+      <c r="H14">
+        <v>0.86760000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -770,16 +949,25 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D15">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E15">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F15">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H15">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -787,16 +975,25 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.1511333333333333</v>
+        <v>0.15113333333333329</v>
       </c>
       <c r="D16">
-        <v>0.2543000000000001</v>
+        <v>0.25430000000000008</v>
       </c>
       <c r="E16">
-        <v>0.2957333333333333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.29573333333333329</v>
+      </c>
+      <c r="F16">
+        <v>0.41333333333333339</v>
+      </c>
+      <c r="G16">
+        <v>0.86659999999999981</v>
+      </c>
+      <c r="H16">
+        <v>0.87203333333333322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -804,16 +1001,25 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.1413</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="D17">
-        <v>0.2571666666666667</v>
+        <v>0.25716666666666671</v>
       </c>
       <c r="E17">
-        <v>0.2975</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.87013333333333343</v>
+      </c>
+      <c r="H17">
+        <v>0.87516666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -821,16 +1027,25 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.1413</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="D18">
-        <v>0.2571666666666667</v>
+        <v>0.25716666666666671</v>
       </c>
       <c r="E18">
-        <v>0.2975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.87013333333333343</v>
+      </c>
+      <c r="H18">
+        <v>0.87516666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -841,13 +1056,22 @@
         <v>0.1428666666666667</v>
       </c>
       <c r="D19">
-        <v>0.2523666666666667</v>
+        <v>0.25236666666666668</v>
       </c>
       <c r="E19">
-        <v>0.2894666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.28946666666666671</v>
+      </c>
+      <c r="F19">
+        <v>0.39883333333333332</v>
+      </c>
+      <c r="G19">
+        <v>0.86530000000000007</v>
+      </c>
+      <c r="H19">
+        <v>0.86990000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -858,13 +1082,22 @@
         <v>0.1492666666666666</v>
       </c>
       <c r="D20">
-        <v>0.2553</v>
+        <v>0.25530000000000003</v>
       </c>
       <c r="E20">
-        <v>0.2951666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.29516666666666669</v>
+      </c>
+      <c r="F20">
+        <v>0.40586666666666671</v>
+      </c>
+      <c r="G20">
+        <v>0.86466666666666669</v>
+      </c>
+      <c r="H20">
+        <v>0.8696666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -872,16 +1105,25 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D21">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E21">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F21">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H21">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -889,16 +1131,25 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.1524</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D22">
-        <v>0.2544333333333333</v>
+        <v>0.25443333333333329</v>
       </c>
       <c r="E22">
-        <v>0.2958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.41596666666666671</v>
+      </c>
+      <c r="G22">
+        <v>0.86663333333333337</v>
+      </c>
+      <c r="H22">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -906,16 +1157,25 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.1524</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D23">
-        <v>0.2544333333333333</v>
+        <v>0.25443333333333329</v>
       </c>
       <c r="E23">
-        <v>0.2958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.41596666666666671</v>
+      </c>
+      <c r="G23">
+        <v>0.86663333333333337</v>
+      </c>
+      <c r="H23">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -926,13 +1186,22 @@
         <v>0.1481666666666667</v>
       </c>
       <c r="D24">
-        <v>0.2561666666666667</v>
+        <v>0.25616666666666671</v>
       </c>
       <c r="E24">
-        <v>0.2956666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.29566666666666669</v>
+      </c>
+      <c r="F24">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.86403333333333321</v>
+      </c>
+      <c r="H24">
+        <v>0.86896666666666655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -943,13 +1212,22 @@
         <v>0.1495333333333333</v>
       </c>
       <c r="D25">
-        <v>0.2640666666666667</v>
+        <v>0.26406666666666673</v>
       </c>
       <c r="E25">
-        <v>0.3033666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.30336666666666667</v>
+      </c>
+      <c r="F25">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.86636666666666673</v>
+      </c>
+      <c r="H25">
+        <v>0.87130000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -960,13 +1238,22 @@
         <v>0.1495333333333333</v>
       </c>
       <c r="D26">
-        <v>0.2640666666666667</v>
+        <v>0.26406666666666673</v>
       </c>
       <c r="E26">
-        <v>0.3033666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.30336666666666667</v>
+      </c>
+      <c r="F26">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.86636666666666673</v>
+      </c>
+      <c r="H26">
+        <v>0.87130000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -974,16 +1261,25 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0.1456</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="D27">
         <v>0.2651</v>
       </c>
       <c r="E27">
-        <v>0.3025666666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.30256666666666671</v>
+      </c>
+      <c r="F27">
+        <v>0.38636666666666658</v>
+      </c>
+      <c r="G27">
+        <v>0.86493333333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.86993333333333323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -991,16 +1287,25 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D28">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E28">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F28">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H28">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1011,13 +1316,22 @@
         <v>0.1430666666666667</v>
       </c>
       <c r="D29">
-        <v>0.2577333333333334</v>
+        <v>0.25773333333333343</v>
       </c>
       <c r="E29">
         <v>0.2928</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0.38476666666666659</v>
+      </c>
+      <c r="G29">
+        <v>0.86556666666666671</v>
+      </c>
+      <c r="H29">
+        <v>0.87036666666666673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1025,16 +1339,25 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>0.1485666666666667</v>
+        <v>0.14856666666666671</v>
       </c>
       <c r="D30">
         <v>0.2544333333333334</v>
       </c>
       <c r="E30">
-        <v>0.2920333333333334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.29203333333333342</v>
+      </c>
+      <c r="F30">
+        <v>0.39783333333333343</v>
+      </c>
+      <c r="G30">
+        <v>0.86480000000000012</v>
+      </c>
+      <c r="H30">
+        <v>0.86973333333333347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1042,16 +1365,25 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>0.1525333333333334</v>
+        <v>0.15253333333333341</v>
       </c>
       <c r="D31">
-        <v>0.2602</v>
+        <v>0.26019999999999999</v>
       </c>
       <c r="E31">
         <v>0.3010666666666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0.41296666666666659</v>
+      </c>
+      <c r="G31">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="H31">
+        <v>0.87356666666666671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1062,13 +1394,22 @@
         <v>0.1483333333333334</v>
       </c>
       <c r="D32">
-        <v>0.2540666666666667</v>
+        <v>0.25406666666666672</v>
       </c>
       <c r="E32">
         <v>0.2950666666666667</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0.3958666666666667</v>
+      </c>
+      <c r="G32">
+        <v>0.86646666666666672</v>
+      </c>
+      <c r="H32">
+        <v>0.8718999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1076,16 +1417,25 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D33">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E33">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F33">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H33">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1093,16 +1443,25 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D34">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E34">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F34">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H34">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1110,16 +1469,25 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D35">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E35">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F35">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H35">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1130,13 +1498,22 @@
         <v>0.1430666666666667</v>
       </c>
       <c r="D36">
-        <v>0.2577333333333334</v>
+        <v>0.25773333333333343</v>
       </c>
       <c r="E36">
         <v>0.2928</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>0.38476666666666659</v>
+      </c>
+      <c r="G36">
+        <v>0.86556666666666671</v>
+      </c>
+      <c r="H36">
+        <v>0.87036666666666673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1147,13 +1524,22 @@
         <v>0.1241666666666667</v>
       </c>
       <c r="D37">
-        <v>0.2470333333333334</v>
+        <v>0.24703333333333341</v>
       </c>
       <c r="E37">
-        <v>0.2780666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.27806666666666668</v>
+      </c>
+      <c r="F37">
+        <v>0.37383333333333341</v>
+      </c>
+      <c r="G37">
+        <v>0.86223333333333341</v>
+      </c>
+      <c r="H37">
+        <v>0.86680000000000013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1161,16 +1547,25 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D38">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E38">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F38">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G38">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H38">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1178,16 +1573,25 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>0.1485666666666667</v>
+        <v>0.14856666666666671</v>
       </c>
       <c r="D39">
         <v>0.2544333333333334</v>
       </c>
       <c r="E39">
-        <v>0.2920333333333334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.29203333333333342</v>
+      </c>
+      <c r="F39">
+        <v>0.39783333333333343</v>
+      </c>
+      <c r="G39">
+        <v>0.86480000000000012</v>
+      </c>
+      <c r="H39">
+        <v>0.86973333333333347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1195,16 +1599,25 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D40">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E40">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F40">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G40">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H40">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1215,13 +1628,22 @@
         <v>0.1482333333333333</v>
       </c>
       <c r="D41">
-        <v>0.2556</v>
+        <v>0.25559999999999999</v>
       </c>
       <c r="E41">
-        <v>0.2943333333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.29433333333333328</v>
+      </c>
+      <c r="F41">
+        <v>0.39160000000000011</v>
+      </c>
+      <c r="G41">
+        <v>0.86073333333333335</v>
+      </c>
+      <c r="H41">
+        <v>0.86623333333333341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1229,16 +1651,25 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D42">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E42">
-        <v>0.2958333333333333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F42">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G42">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H42">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1249,13 +1680,22 @@
         <v>0.1483333333333334</v>
       </c>
       <c r="D43">
-        <v>0.2540666666666667</v>
+        <v>0.25406666666666672</v>
       </c>
       <c r="E43">
         <v>0.2950666666666667</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>0.3958666666666667</v>
+      </c>
+      <c r="G43">
+        <v>0.86646666666666672</v>
+      </c>
+      <c r="H43">
+        <v>0.8718999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1263,16 +1703,25 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>0.1495</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="D44">
         <v>0.253</v>
       </c>
       <c r="E44">
-        <v>0.2938999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.29389999999999988</v>
+      </c>
+      <c r="F44">
+        <v>0.39496666666666669</v>
+      </c>
+      <c r="G44">
+        <v>0.86369999999999991</v>
+      </c>
+      <c r="H44">
+        <v>0.86919999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1280,16 +1729,25 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>0.1495</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="D45">
         <v>0.253</v>
       </c>
       <c r="E45">
-        <v>0.2938999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.29389999999999988</v>
+      </c>
+      <c r="F45">
+        <v>0.39496666666666669</v>
+      </c>
+      <c r="G45">
+        <v>0.86369999999999991</v>
+      </c>
+      <c r="H45">
+        <v>0.86919999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1297,16 +1755,25 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>0.1495</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="D46">
         <v>0.253</v>
       </c>
       <c r="E46">
-        <v>0.2938999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.29389999999999988</v>
+      </c>
+      <c r="F46">
+        <v>0.39496666666666669</v>
+      </c>
+      <c r="G46">
+        <v>0.86369999999999991</v>
+      </c>
+      <c r="H46">
+        <v>0.86919999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1314,13 +1781,22 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>0.1524333333333334</v>
+        <v>0.15243333333333339</v>
       </c>
       <c r="D47">
-        <v>0.2544000000000001</v>
+        <v>0.25440000000000013</v>
       </c>
       <c r="E47">
-        <v>0.2958333333333333</v>
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="F47">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G47">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H47">
+        <v>0.87219999999999998</v>
       </c>
     </row>
   </sheetData>
